--- a/pred_ohlcv/54_21/2020-01-14 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1422.790244270012</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5415.922155729988</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3143.512944270013</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-12183.86934427001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-60752.85814427002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-73349.49474427002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-39484.81114427002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-47354.48036760002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2965.179067600026</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2117.716267600025</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3039.595667600025</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3039.595667600025</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26726.19253239997</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4254.657667600026</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4254.657667600026</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-56113.99256760003</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32225.81056760003</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-40473.96946760003</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-57303.64196760003</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-147546.7612676</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51818.22724831002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-52229.72274831002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51611.50304831002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-43465424.71831813</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-43458201.21881814</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-43458201.21881814</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-43566182.70920384</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-43571733.82180384</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-43571733.82180384</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-43566722.21410384</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-43566722.21410384</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-43646154.88573675</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-43714962.98383675</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-43714962.98383675</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-43750018.10513674</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-43673311.47023675</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-43914402.73803675</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-43893925.21703675</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-44057191.49863675</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-44053700.13693675</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-44062505.29813676</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-44062505.29813676</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-44015738.80023675</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-44014971.22624329</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-44002236.89613675</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-44002236.89613675</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-44003425.22313675</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-44003425.22313675</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-43848362.67268874</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-43854996.23878875</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-43865269.60718875</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-43865269.60718875</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-43897507.17318875</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-43897507.17318875</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-43916025.94428875</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-43869739.26688875</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-44544097.19209203</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-44541702.69209203</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-44546041.60299203</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-44546421.11299203</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-44543550.65036654</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-44544314.50606654</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-44543820.06396654</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-44543820.06396654</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-43622759.98770684</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-43678006.23090684</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-43682105.39960684</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-43659054.90215848</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-43620730.15855847</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-43629719.86935847</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-43628788.63775847</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-43628982.30745847</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-43621829.61585847</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-43637380.28425846</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-43644374.98195846</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-43876102.01485847</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-43863651.75705847</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-43873775.55045847</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-43925871.79785847</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-43915639.18035847</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1422.790244270012</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5415.922155729988</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3143.512944270013</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-12183.86934427001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-60752.85814427002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2965.179067600026</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2117.716267600025</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2245.754667600025</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3039.595667600025</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3039.595667600025</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26726.19253239997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4254.657667600026</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4254.657667600026</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-56113.99256760003</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32225.81056760003</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-40473.96946760003</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-57303.64196760003</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-43465424.71831813</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-43458201.21881814</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-43458201.21881814</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-43566182.70920384</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-43571733.82180384</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-43571733.82180384</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-43566722.21410384</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-43566722.21410384</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-43646154.88573675</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-43714962.98383675</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-43714962.98383675</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-43750018.10513674</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-43780424.06483675</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-43673311.47023675</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-43914402.73803675</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-43893925.21703675</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-44057191.49863675</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-44053700.13693675</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-44062505.29813676</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-44062505.29813676</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-44002236.89613675</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-44003425.22313675</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-44003425.22313675</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-43897507.17318875</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-43916025.94428875</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-43869739.26688875</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-43988565.8894953</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-43988565.8894953</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-43960405.0852953</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-43938480.1952953</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-44544097.19209203</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-44541702.69209203</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-44546041.60299203</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-44546421.11299203</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-44543550.65036654</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-44544314.50606654</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-44543820.06396654</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-44543820.06396654</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-43622759.98770684</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-43678006.23090684</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-43682105.39960684</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-43659054.90215848</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-43620730.15855847</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-43629719.86935847</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-43628788.63775847</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-43628982.30745847</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-43621829.61585847</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-43637380.28425846</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-43644374.98195846</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-43876102.01485847</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-43863651.75705847</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-43873775.55045847</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-43925871.79785847</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-43915639.18035847</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
